--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3839944.348110811</v>
+        <v>3837692.268399604</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>45.62768516800146</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.08838152387887</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.37812809995389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>23.41928146220654</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606658</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>263.3429757223586</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>118.0396607942417</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>102.767342670914</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695749</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>202.3849477731499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>10.63412424768206</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.01360035611813</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>131.4244133395508</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>175.0948681033051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3910,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>230.7818758741516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.503030201924</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>870.5405132615124</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>512.2748146547619</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4865620565176</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3279.5172507324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3073.539503116623</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3073.539503116623</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2742.476615773052</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2389.707960502938</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2016.242202241858</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.102870266046</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8459426266613</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1866.599213215887</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1866.599213215887</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.832597785413</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1355.729730911056</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.045242705169</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>811.6280726682088</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>583.6385217701915</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8459426266613</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906802</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1813.808250985206</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1592.041635554732</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1302.938768680375</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.254280474488</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>758.8371104375277</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>530.8475595395104</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299122</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1827.13547735871</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1468.86977875196</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1083.081526153715</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>672.0956213641077</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339055</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363244</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>820.4128495803443</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>651.4766666524374</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>501.3600272401017</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>353.4469336577085</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658018</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1222.853893554114</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1002.061314410584</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004714</v>
@@ -5027,25 +5027,25 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,52 +5258,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309957</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>943.5102657467545</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373306</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6449060441816</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784064</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504995</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381638</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557706</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892232</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,31 +6716,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951538</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
         <v>175.9033664000583</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000583</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.84813034729834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682519844</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>83.7995266160942</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.6605885985418</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440182</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42036229045104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.00954930701835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.61478728573204</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>55.74112246243956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647896.3069800538</v>
+        <v>647896.3069800537</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647896.3069800538</v>
+        <v>647896.3069800537</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316952</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181815</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244788</v>
+        <v>-727736.9156244795</v>
       </c>
       <c r="C6" t="n">
+        <v>601007.8301031131</v>
+      </c>
+      <c r="D6" t="n">
         <v>601007.8301031129</v>
       </c>
-      <c r="D6" t="n">
-        <v>601007.830103113</v>
-      </c>
       <c r="E6" t="n">
-        <v>348046.0228846748</v>
+        <v>348011.2849592391</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920304</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920304</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920305</v>
+        <v>673423.7467665946</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920306</v>
+        <v>673423.7467665945</v>
       </c>
       <c r="J6" t="n">
-        <v>455927.2822947531</v>
+        <v>455892.5443693172</v>
       </c>
       <c r="K6" t="n">
-        <v>673458.4846920304</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="L6" t="n">
-        <v>673458.4846920305</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="M6" t="n">
-        <v>588403.4567565187</v>
+        <v>588368.7188310829</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920307</v>
+        <v>673423.7467665951</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920307</v>
+        <v>673423.7467665948</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920305</v>
+        <v>673423.7467665948</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.56007662017441</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.84377114616851</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.8598105560997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>166.3497438692353</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103418</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>147.5787499310948</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>27.38138722868956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731345</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931488</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>295.9743940159484</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,10 +33178,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>300.768778117042</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>565.8030433278964</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588043</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187898</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,22 +36200,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016181</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>169.4270660337087</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>423.6690094058781</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
